--- a/data/BTS/TRPT/TRPT_series.xlsx
+++ b/data/BTS/TRPT/TRPT_series.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF9E609-17BD-4C86-A8CE-317DB58BDBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="2160" windowWidth="17280" windowHeight="8970" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="8880" yWindow="1260" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ISADJUSTED" sheetId="3" r:id="rId1"/>
@@ -826,7 +827,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -940,11 +941,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Normal 2 2" xfId="1"/>
-    <cellStyle name="Normal 4 2" xfId="2"/>
+    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 4 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 3" xfId="4"/>
-    <cellStyle name="一般 4" xfId="3"/>
+    <cellStyle name="一般 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1221,7 +1222,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1281,11 +1282,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2468,7 +2469,7 @@
       <c r="B158" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="A2:E163">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E163">
     <sortCondition ref="E1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2478,7 +2479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2639,7 +2640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
